--- a/data/regions/de-at/de-at.xlsx
+++ b/data/regions/de-at/de-at.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Sites\vinfo\data\regions\de-at\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AT" sheetId="1" r:id="rId1"/>
-    <sheet name="DE" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="German Lagen" sheetId="5" r:id="rId4"/>
+    <sheet name="AT import" sheetId="6" r:id="rId2"/>
+    <sheet name="DE" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="German Lagen" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DE!$A$1:$I$237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DE!$A$1:$I$237</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="548">
   <si>
     <t>Mittelburgenland DAC</t>
   </si>
@@ -1646,6 +1652,24 @@
   </si>
   <si>
     <t>Frauenberg_SHORTCUT</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>South Burgenland</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>|||</t>
+  </si>
+  <si>
+    <t>||||</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1749,226 +1773,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2018,6 +1832,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2065,7 +1882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2100,7 +1917,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2312,8 +2129,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,12 +2667,468 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>543</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8017,7 +8290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
@@ -8030,7 +8303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D219"/>
@@ -9429,19 +9702,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D13:D78">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:D103">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106:D138">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D141:D199 D201:D219 C200:D200">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D199 D201:D1048576 C200:D200">
-    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="_SHORTCUT">
+    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" operator="containsText" text="_SHORTCUT">
       <formula>NOT(ISERROR(SEARCH("_SHORTCUT",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
